--- a/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:11:35+00:00</t>
+    <t>2026-02-24T10:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -1095,147 +1095,6 @@
     <t>ContactPoint</t>
   </si>
   <si>
-    <t>Practitioner.telecom.id</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:emailType</t>
-  </si>
-  <si>
-    <t>emailType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type}
-</t>
-  </si>
-  <si>
-    <t>Type of email | type de messagerie électronique</t>
-  </si>
-  <si>
-    <t>Extension on the ContactPoint datatype. This extension allows to specify the type of mail used to contact the person (MSSsanté|Apicrypt|OSM|Autre).</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R200-CanalCommunication/</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
     <t>Practitioner.address</t>
   </si>
   <si>
@@ -1262,293 +1121,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>Practitioner.address.id</t>
-  </si>
-  <si>
-    <t>Practitioner.address.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.address.extension:inseeCode</t>
-  </si>
-  <si>
-    <t>inseeCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
-</t>
-  </si>
-  <si>
-    <t>Code COG de la ville</t>
-  </si>
-  <si>
-    <t>This extension adds the insee code (5 digits) to the address | Ajout du code insee (5 chiffres) à l'adresse postale</t>
-  </si>
-  <si>
-    <t>Practitioner.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>./AddressPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R35-TypeVoie/</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Practitioner.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Practitioner.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>./StreetAddress (newline delimitted)</t>
-  </si>
-  <si>
-    <t>Practitioner.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Les communes existantes sont définies ici : https://public.opendatasoft.com/explore/dataset/correspondance-code-insee-code-postal/table.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>Practitioner.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Practitioner.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>./Region</t>
-  </si>
-  <si>
-    <t>Practitioner.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>./PostalIdentificationCode</t>
-  </si>
-  <si>
-    <t>Practitioner.address.country</t>
-  </si>
-  <si>
-    <t>Country (will be ISO 3166 3 letter code; code=FRA for France)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>./Country</t>
-  </si>
-  <si>
-    <t>Practitioner.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Practitioner.gender</t>
@@ -2303,7 +1875,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN127"/>
+  <dimension ref="A1:AN106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2322,7 +1894,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2331,7 +1903,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -2347,7 +1919,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.109375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="43.68359375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
@@ -8205,7 +7777,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -8217,16 +7789,20 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>101</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
       </c>
@@ -8274,28 +7850,28 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>103</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>104</v>
+        <v>350</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -8303,21 +7879,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -8326,21 +7902,21 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>108</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -8364,52 +7940,52 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>114</v>
+        <v>352</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>358</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -8417,14 +7993,12 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>75</v>
       </c>
@@ -8442,19 +8016,21 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
@@ -8502,28 +8078,28 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>114</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>75</v>
+        <v>366</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -8531,10 +8107,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8542,10 +8118,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -8554,19 +8130,21 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>166</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
@@ -8590,11 +8168,13 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -8612,28 +8192,28 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>356</v>
+        <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8641,10 +8221,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8652,10 +8232,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -8664,23 +8244,19 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
@@ -8716,25 +8292,23 @@
         <v>75</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
@@ -8743,13 +8317,13 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>267</v>
+        <v>383</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>75</v>
@@ -8757,10 +8331,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8777,26 +8351,22 @@
         <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -8820,13 +8390,13 @@
         <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>373</v>
+        <v>75</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
@@ -8844,7 +8414,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>374</v>
+        <v>103</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8856,16 +8426,16 @@
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>376</v>
+        <v>104</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>377</v>
+        <v>75</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>75</v>
@@ -8873,21 +8443,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -8896,19 +8466,19 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>379</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8958,22 +8528,22 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>383</v>
+        <v>114</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>104</v>
@@ -8987,42 +8557,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -9070,28 +8644,28 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
@@ -9099,10 +8673,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9125,17 +8699,15 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>390</v>
+        <v>206</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N60" t="s" s="2">
         <v>393</v>
       </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>394</v>
       </c>
@@ -9186,7 +8758,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9195,19 +8767,19 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>397</v>
+        <v>75</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>75</v>
@@ -9215,10 +8787,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9226,7 +8798,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
@@ -9241,13 +8813,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>101</v>
+        <v>397</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9274,13 +8846,13 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
@@ -9298,10 +8870,10 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>86</v>
@@ -9310,16 +8882,16 @@
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -9327,21 +8899,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -9353,18 +8925,18 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>108</v>
+        <v>403</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
       </c>
@@ -9400,40 +8972,40 @@
         <v>75</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>104</v>
+        <v>406</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -9441,14 +9013,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>75</v>
       </c>
@@ -9469,13 +9039,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>402</v>
+        <v>279</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9526,25 +9096,25 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>114</v>
+        <v>408</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -9555,12 +9125,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>75</v>
       </c>
@@ -9569,32 +9141,28 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>166</v>
+        <v>377</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
       </c>
@@ -9606,7 +9174,7 @@
         <v>75</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>75</v>
@@ -9618,13 +9186,13 @@
         <v>75</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>75</v>
@@ -9642,13 +9210,13 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
@@ -9657,13 +9225,13 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9671,10 +9239,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9694,20 +9262,18 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>101</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9720,7 +9286,7 @@
         <v>75</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>75</v>
@@ -9732,11 +9298,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -9754,7 +9322,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>422</v>
+        <v>103</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9766,13 +9334,13 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>376</v>
+        <v>104</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9783,21 +9351,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -9806,23 +9374,21 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>425</v>
+        <v>108</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>426</v>
+        <v>109</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
       </c>
@@ -9834,7 +9400,7 @@
         <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>75</v>
@@ -9870,25 +9436,25 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>430</v>
+        <v>114</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>431</v>
+        <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>432</v>
+        <v>104</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9899,14 +9465,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9919,22 +9485,26 @@
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -9946,7 +9516,7 @@
         <v>75</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>436</v>
+        <v>75</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>75</v>
@@ -9982,7 +9552,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9994,16 +9564,16 @@
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>438</v>
+        <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>439</v>
+        <v>189</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>75</v>
@@ -10011,21 +9581,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>442</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -10034,19 +9604,21 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>75</v>
       </c>
@@ -10058,7 +9630,7 @@
         <v>75</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>445</v>
+        <v>75</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>75</v>
@@ -10094,13 +9666,13 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
@@ -10109,13 +9681,13 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>447</v>
+        <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>449</v>
+        <v>75</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>75</v>
@@ -10123,18 +9695,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>451</v>
+        <v>75</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>86</v>
@@ -10146,20 +9718,18 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>75</v>
@@ -10172,7 +9742,7 @@
         <v>75</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>455</v>
+        <v>75</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>75</v>
@@ -10184,13 +9754,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -10208,10 +9778,10 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>86</v>
@@ -10223,13 +9793,13 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>457</v>
+        <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>458</v>
+        <v>382</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>75</v>
@@ -10237,14 +9807,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10260,16 +9830,16 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>101</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>462</v>
+        <v>102</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10320,7 +9890,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10332,16 +9902,16 @@
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>464</v>
+        <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>465</v>
+        <v>104</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>466</v>
+        <v>75</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -10349,21 +9919,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>468</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -10372,18 +9942,20 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>469</v>
+        <v>108</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -10396,7 +9968,7 @@
         <v>75</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>471</v>
+        <v>75</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>75</v>
@@ -10420,40 +9992,40 @@
         <v>75</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>472</v>
+        <v>114</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>473</v>
+        <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>474</v>
+        <v>104</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>475</v>
+        <v>75</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>75</v>
@@ -10461,10 +10033,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10475,7 +10047,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -10487,18 +10059,20 @@
         <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -10534,25 +10108,23 @@
         <v>75</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
@@ -10561,13 +10133,13 @@
         <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>483</v>
+        <v>75</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>75</v>
@@ -10575,12 +10147,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>75</v>
       </c>
@@ -10601,17 +10175,19 @@
         <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>487</v>
+        <v>429</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -10624,7 +10200,7 @@
         <v>75</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>488</v>
+        <v>75</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>75</v>
@@ -10636,13 +10212,11 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>75</v>
+        <v>436</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -10660,13 +10234,13 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
@@ -10675,13 +10249,13 @@
         <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>75</v>
@@ -10689,12 +10263,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>75</v>
       </c>
@@ -10715,17 +10291,19 @@
         <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10752,11 +10330,9 @@
       <c r="X74" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>496</v>
+        <v>438</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10774,13 +10350,13 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
@@ -10789,13 +10365,13 @@
         <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>498</v>
+        <v>433</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>499</v>
+        <v>75</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>75</v>
@@ -10803,10 +10379,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>500</v>
+        <v>439</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10829,17 +10405,19 @@
         <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>501</v>
+        <v>100</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10888,7 +10466,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10903,13 +10481,13 @@
         <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>506</v>
+        <v>447</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>507</v>
+        <v>75</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10917,10 +10495,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>508</v>
+        <v>402</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10931,7 +10509,7 @@
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -10943,17 +10521,17 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>509</v>
+        <v>270</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>510</v>
+        <v>403</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>511</v>
+        <v>404</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>75</v>
@@ -11002,13 +10580,13 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>508</v>
+        <v>402</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
@@ -11020,10 +10598,10 @@
         <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>513</v>
+        <v>406</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>514</v>
+        <v>407</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -11031,10 +10609,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>515</v>
+        <v>408</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11045,7 +10623,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -11057,13 +10635,13 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>516</v>
+        <v>279</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>517</v>
+        <v>409</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>518</v>
+        <v>410</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11102,23 +10680,25 @@
         <v>75</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AC77" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>515</v>
+        <v>408</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
@@ -11127,13 +10707,13 @@
         <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>520</v>
+        <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>521</v>
+        <v>411</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>522</v>
+        <v>75</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -11141,12 +10721,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>523</v>
+        <v>450</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>75</v>
       </c>
@@ -11167,13 +10749,13 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>101</v>
+        <v>452</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>102</v>
+        <v>379</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11224,28 +10806,28 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>103</v>
+        <v>376</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>75</v>
+        <v>383</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -11253,21 +10835,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>524</v>
+        <v>384</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
@@ -11279,17 +10861,15 @@
         <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>75</v>
@@ -11338,19 +10918,19 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
@@ -11367,14 +10947,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>525</v>
+        <v>385</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>526</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11387,26 +10967,24 @@
         <v>75</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>527</v>
+        <v>108</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>528</v>
+        <v>109</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O80" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>75</v>
       </c>
@@ -11454,7 +11032,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>529</v>
+        <v>114</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11472,7 +11050,7 @@
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>75</v>
@@ -11483,14 +11061,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>455</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>530</v>
+        <v>386</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11503,23 +11081,25 @@
         <v>75</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>531</v>
+        <v>388</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O81" t="s" s="2">
-        <v>533</v>
+        <v>203</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>75</v>
@@ -11568,7 +11148,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>530</v>
+        <v>390</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11580,13 +11160,13 @@
         <v>75</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>534</v>
+        <v>189</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>75</v>
@@ -11597,10 +11177,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>535</v>
+        <v>456</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>535</v>
+        <v>391</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11608,10 +11188,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>75</v>
@@ -11623,16 +11203,18 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>536</v>
+        <v>392</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>537</v>
+        <v>393</v>
       </c>
       <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>75</v>
       </c>
@@ -11656,13 +11238,13 @@
         <v>75</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>538</v>
+        <v>75</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>539</v>
+        <v>75</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>75</v>
@@ -11680,13 +11262,13 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>535</v>
+        <v>391</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>75</v>
@@ -11698,10 +11280,10 @@
         <v>75</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>521</v>
+        <v>395</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>540</v>
+        <v>75</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>75</v>
@@ -11709,10 +11291,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>541</v>
+        <v>457</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>541</v>
+        <v>396</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11720,7 +11302,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>86</v>
@@ -11735,18 +11317,16 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>542</v>
+        <v>397</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>543</v>
+        <v>398</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>75</v>
       </c>
@@ -11770,13 +11350,13 @@
         <v>75</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>75</v>
@@ -11794,10 +11374,10 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>541</v>
+        <v>396</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>86</v>
@@ -11812,10 +11392,10 @@
         <v>75</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>545</v>
+        <v>382</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>546</v>
+        <v>401</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>75</v>
@@ -11823,10 +11403,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>547</v>
+        <v>421</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11849,13 +11429,13 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>549</v>
+        <v>102</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11906,7 +11486,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>547</v>
+        <v>103</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -11918,13 +11498,13 @@
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>550</v>
+        <v>104</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>75</v>
@@ -11935,16 +11515,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>459</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11963,15 +11541,17 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>516</v>
+        <v>107</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>553</v>
+        <v>108</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -12008,19 +11588,19 @@
         <v>75</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>515</v>
+        <v>114</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12032,16 +11612,16 @@
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>520</v>
+        <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>521</v>
+        <v>104</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>522</v>
+        <v>75</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>75</v>
@@ -12049,10 +11629,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>554</v>
+        <v>460</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12063,7 +11643,7 @@
         <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>75</v>
@@ -12072,19 +11652,23 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>101</v>
+        <v>426</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
@@ -12120,37 +11704,35 @@
         <v>75</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC86" s="2"/>
       <c r="AD86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>103</v>
+        <v>431</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>104</v>
+        <v>433</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>75</v>
@@ -12161,21 +11743,23 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>555</v>
+        <v>461</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="D87" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -12184,21 +11768,23 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>108</v>
+        <v>463</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>109</v>
+        <v>427</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>75</v>
       </c>
@@ -12222,13 +11808,11 @@
         <v>75</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>75</v>
@@ -12246,7 +11830,7 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>114</v>
+        <v>431</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12258,13 +11842,13 @@
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>104</v>
+        <v>433</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>75</v>
@@ -12275,45 +11859,47 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>556</v>
+        <v>465</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>526</v>
+        <v>75</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>528</v>
+        <v>427</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>110</v>
+        <v>428</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>75</v>
@@ -12338,13 +11924,11 @@
         <v>75</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>75</v>
+        <v>468</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>75</v>
@@ -12362,7 +11946,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>529</v>
+        <v>431</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12374,13 +11958,13 @@
         <v>75</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>189</v>
+        <v>433</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>75</v>
@@ -12391,10 +11975,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>557</v>
+        <v>469</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>530</v>
+        <v>440</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12405,7 +11989,7 @@
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
@@ -12414,20 +11998,22 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O89" t="s" s="2">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>75</v>
@@ -12476,13 +12062,13 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>530</v>
+        <v>445</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>75</v>
@@ -12491,10 +12077,10 @@
         <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>75</v>
@@ -12505,10 +12091,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>558</v>
+        <v>470</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>535</v>
+        <v>402</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12516,7 +12102,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>86</v>
@@ -12531,16 +12117,18 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>536</v>
+        <v>403</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>537</v>
+        <v>404</v>
       </c>
       <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>75</v>
       </c>
@@ -12564,13 +12152,13 @@
         <v>75</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>538</v>
+        <v>75</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>539</v>
+        <v>75</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>75</v>
@@ -12588,10 +12176,10 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>535</v>
+        <v>402</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>86</v>
@@ -12606,10 +12194,10 @@
         <v>75</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>521</v>
+        <v>406</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>540</v>
+        <v>407</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>75</v>
@@ -12617,10 +12205,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>559</v>
+        <v>471</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>560</v>
+        <v>408</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12643,13 +12231,13 @@
         <v>75</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12700,7 +12288,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>103</v>
+        <v>408</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -12712,13 +12300,13 @@
         <v>75</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>75</v>
@@ -12729,14 +12317,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>561</v>
+        <v>472</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="D92" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12755,17 +12345,15 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>107</v>
+        <v>377</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>108</v>
+        <v>474</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>75</v>
@@ -12802,19 +12390,19 @@
         <v>75</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>114</v>
+        <v>376</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -12826,16 +12414,16 @@
         <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>75</v>
+        <v>383</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>75</v>
@@ -12843,10 +12431,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>563</v>
+        <v>475</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>564</v>
+        <v>384</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12857,7 +12445,7 @@
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -12866,23 +12454,19 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>565</v>
+        <v>101</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>75</v>
       </c>
@@ -12918,35 +12502,37 @@
         <v>75</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC93" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>569</v>
+        <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>570</v>
+        <v>103</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>571</v>
+        <v>75</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>572</v>
+        <v>104</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>75</v>
@@ -12957,23 +12543,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>573</v>
+        <v>476</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
@@ -12982,23 +12566,21 @@
         <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>565</v>
+        <v>108</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>566</v>
+        <v>109</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>75</v>
       </c>
@@ -13022,11 +12604,13 @@
         <v>75</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y94" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z94" t="s" s="2">
-        <v>575</v>
+        <v>75</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>75</v>
@@ -13044,7 +12628,7 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>570</v>
+        <v>114</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13056,13 +12640,13 @@
         <v>75</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>571</v>
+        <v>75</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>572</v>
+        <v>104</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>75</v>
@@ -13073,47 +12657,45 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>576</v>
+        <v>477</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>565</v>
+        <v>388</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>566</v>
+        <v>389</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>567</v>
+        <v>110</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>568</v>
+        <v>203</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>75</v>
@@ -13138,11 +12720,13 @@
         <v>75</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y95" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z95" t="s" s="2">
-        <v>577</v>
+        <v>75</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>75</v>
@@ -13160,7 +12744,7 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>570</v>
+        <v>390</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13172,13 +12756,13 @@
         <v>75</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>571</v>
+        <v>75</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>572</v>
+        <v>189</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>75</v>
@@ -13189,10 +12773,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>578</v>
+        <v>478</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>579</v>
+        <v>391</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13203,7 +12787,7 @@
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>75</v>
@@ -13212,22 +12796,20 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>580</v>
+        <v>392</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>583</v>
+        <v>394</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>75</v>
@@ -13276,13 +12858,13 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>584</v>
+        <v>391</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>75</v>
@@ -13291,10 +12873,10 @@
         <v>98</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>585</v>
+        <v>75</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>586</v>
+        <v>395</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>75</v>
@@ -13305,10 +12887,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>587</v>
+        <v>479</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>541</v>
+        <v>396</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13316,7 +12898,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>86</v>
@@ -13331,18 +12913,16 @@
         <v>75</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>542</v>
+        <v>397</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>543</v>
+        <v>398</v>
       </c>
       <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>75</v>
       </c>
@@ -13366,13 +12946,13 @@
         <v>75</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>75</v>
@@ -13390,10 +12970,10 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>541</v>
+        <v>396</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>86</v>
@@ -13408,10 +12988,10 @@
         <v>75</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>545</v>
+        <v>382</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>546</v>
+        <v>401</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>75</v>
@@ -13419,10 +12999,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>588</v>
+        <v>480</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>547</v>
+        <v>421</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13445,13 +13025,13 @@
         <v>75</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>549</v>
+        <v>102</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13502,7 +13082,7 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>547</v>
+        <v>103</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13514,13 +13094,13 @@
         <v>75</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>550</v>
+        <v>104</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>75</v>
@@ -13531,23 +13111,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>589</v>
+        <v>481</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>75</v>
@@ -13559,15 +13137,17 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>516</v>
+        <v>107</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>591</v>
+        <v>108</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>75</v>
@@ -13604,19 +13184,19 @@
         <v>75</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>515</v>
+        <v>114</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -13628,16 +13208,16 @@
         <v>75</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>520</v>
+        <v>75</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>521</v>
+        <v>104</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>522</v>
+        <v>75</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>75</v>
@@ -13645,10 +13225,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>592</v>
+        <v>482</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13659,7 +13239,7 @@
         <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>75</v>
@@ -13668,19 +13248,23 @@
         <v>75</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>101</v>
+        <v>426</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>75</v>
       </c>
@@ -13716,37 +13300,35 @@
         <v>75</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC100" s="2"/>
       <c r="AD100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>103</v>
+        <v>431</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>104</v>
+        <v>433</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>75</v>
@@ -13757,21 +13339,23 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="D101" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -13780,21 +13364,23 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>108</v>
+        <v>485</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>109</v>
+        <v>427</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>75</v>
       </c>
@@ -13818,13 +13404,11 @@
         <v>75</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>75</v>
+        <v>486</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>75</v>
@@ -13842,7 +13426,7 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>114</v>
+        <v>431</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -13854,13 +13438,13 @@
         <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>104</v>
+        <v>433</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>75</v>
@@ -13871,45 +13455,47 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>594</v>
+        <v>487</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="D102" t="s" s="2">
-        <v>526</v>
+        <v>75</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>528</v>
+        <v>427</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>110</v>
+        <v>428</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>75</v>
@@ -13934,13 +13520,11 @@
         <v>75</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y102" s="2"/>
       <c r="Z102" t="s" s="2">
-        <v>75</v>
+        <v>489</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>75</v>
@@ -13958,7 +13542,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>529</v>
+        <v>431</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -13970,13 +13554,13 @@
         <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>189</v>
+        <v>433</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>75</v>
@@ -13987,10 +13571,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>595</v>
+        <v>490</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>530</v>
+        <v>440</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14001,7 +13585,7 @@
         <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>75</v>
@@ -14010,20 +13594,22 @@
         <v>75</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O103" t="s" s="2">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>75</v>
@@ -14072,13 +13658,13 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>530</v>
+        <v>445</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>75</v>
@@ -14087,10 +13673,10 @@
         <v>98</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>75</v>
@@ -14101,10 +13687,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>596</v>
+        <v>491</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>535</v>
+        <v>402</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14112,7 +13698,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>86</v>
@@ -14127,16 +13713,18 @@
         <v>75</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>536</v>
+        <v>403</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>537</v>
+        <v>404</v>
       </c>
       <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>75</v>
       </c>
@@ -14160,13 +13748,13 @@
         <v>75</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>538</v>
+        <v>75</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>539</v>
+        <v>75</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>75</v>
@@ -14184,10 +13772,10 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>535</v>
+        <v>402</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>86</v>
@@ -14202,10 +13790,10 @@
         <v>75</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>521</v>
+        <v>406</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>540</v>
+        <v>407</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>75</v>
@@ -14213,10 +13801,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>597</v>
+        <v>492</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>560</v>
+        <v>408</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14239,13 +13827,13 @@
         <v>75</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14296,7 +13884,7 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>103</v>
+        <v>408</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -14308,13 +13896,13 @@
         <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>75</v>
@@ -14325,14 +13913,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>598</v>
+        <v>493</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>562</v>
+        <v>493</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14351,18 +13939,20 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>108</v>
+        <v>494</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>109</v>
+        <v>495</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>75</v>
       </c>
@@ -14386,31 +13976,31 @@
         <v>75</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>114</v>
+        <v>493</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -14422,2418 +14012,18 @@
         <v>75</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>75</v>
+        <v>498</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>104</v>
+        <v>499</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC107" s="2"/>
-      <c r="AD107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y108" s="2"/>
-      <c r="Z108" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="D109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y109" s="2"/>
-      <c r="Z109" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="D113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O120" s="2"/>
-      <c r="P120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC121" s="2"/>
-      <c r="AD121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="D122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y122" s="2"/>
-      <c r="Z122" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="D123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y123" s="2"/>
-      <c r="Z123" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="P124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="P127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AN127" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:44:05+00:00</t>
+    <t>2026-02-24T16:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:15:31+00:00</t>
+    <t>2026-02-25T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:31:26+00:00</t>
+    <t>2026-02-25T08:48:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:48:17+00:00</t>
+    <t>2026-02-26T17:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-26T17:10:09+00:00</t>
+    <t>2026-02-27T10:05:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
